--- a/medicine/Sexualité et sexologie/Les_Melons_de_la_colère/Les_Melons_de_la_colère.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Melons_de_la_colère/Les_Melons_de_la_colère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Melons_de_la_col%C3%A8re</t>
+          <t>Les_Melons_de_la_colère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Melons de la colère est une bande dessinée du dessinateur français Bastien Vivès parue en novembre 2011 aux éditions Requins Marteaux dans la collection BD Cul. À la suite d'une polémique en 2022 à propos de l'œuvre et des déclarations de Bastien Vivès, cette œuvre est accusée de promouvoir la pédopornographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Melons_de_la_col%C3%A8re</t>
+          <t>Les_Melons_de_la_colère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bande dessinée relate les aventures d'une jeune femme de la campagne peu intelligente et à la poitrine surdimensionnée qui subit des viols multiples.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Melons_de_la_col%C3%A8re</t>
+          <t>Les_Melons_de_la_colère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Réception et critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les avis sont mitigés, et oscillent sur l'appréhension de l'œuvre, entre farce porno et culture du viol et de la pédocriminalité[1],[2]'
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les avis sont mitigés, et oscillent sur l'appréhension de l'œuvre, entre farce porno et culture du viol et de la pédocriminalité,'
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Melons_de_la_col%C3%A8re</t>
+          <t>Les_Melons_de_la_colère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Polémique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, la programmation de Bastien Vivès en tant qu'invité d'honneur au festival d'Angoulême, avec une exposition prévue, déclenche une polémique. À cette occasion, le passé de Vivès ressurgit et, notamment, Les Melons de la colère. Deux associations portent plainte contre lui et les deux maisons d'éditions concernées[3]. 
-Le 6 janvier 2023, le parquet de Nanterre ouvre une enquête préliminaire visant Bastien Vivès et les maisons d'éditions Glénat et Les Requins Marteaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, la programmation de Bastien Vivès en tant qu'invité d'honneur au festival d'Angoulême, avec une exposition prévue, déclenche une polémique. À cette occasion, le passé de Vivès ressurgit et, notamment, Les Melons de la colère. Deux associations portent plainte contre lui et les deux maisons d'éditions concernées. 
+Le 6 janvier 2023, le parquet de Nanterre ouvre une enquête préliminaire visant Bastien Vivès et les maisons d'éditions Glénat et Les Requins Marteaux.
 </t>
         </is>
       </c>
